--- a/ZRPgraf/example.xlsx
+++ b/ZRPgraf/example.xlsx
@@ -334,6 +334,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
